--- a/Documentos/Gestion/ProductBacklogV2.xlsx
+++ b/Documentos/Gestion/ProductBacklogV2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Churmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\ProyectoGPS-master\Documentos\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -149,9 +149,6 @@
     <t>Realizado en el sprint 2, es lo mismo que HU_04, pero sin la necesidad de que se crea un grupo.</t>
   </si>
   <si>
-    <t>Se hizo en el sprint 2, el administrador y los maestros pueden consultar los alumnos del sistema.</t>
-  </si>
-  <si>
     <t>Se realizo durante el sprint 2, los alumnos pueden ver sus calificaciones.</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Se hizo en el sprint 2, su finalidad es que el maestro le asigne la calificacion de cada materia durante el bimestre.</t>
+  </si>
+  <si>
+    <t>Se hizo en el sprint 2, los maestros pueden consultar los alumnos del sistema.</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
@@ -690,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="105" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
